--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Project\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C3B5D3-9412-42D6-B0F7-122E93654A3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7022D-71D1-4EE2-BB57-115066417989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3510" windowWidth="25500" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33435" yWindow="2205" windowWidth="26535" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -43,10 +43,23 @@
     <t>string</t>
   </si>
   <si>
+    <t>0.0.0.0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.3.29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网测试专用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>192.168.3.29</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外网服务器专用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:E6"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -444,7 +457,7 @@
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -455,7 +468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -466,7 +479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -477,15 +490,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartMachineConfig.xlsx
+++ b/Excel/StartMachineConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Project\ET\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB7022D-71D1-4EE2-BB57-115066417989}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA23EF0-8BB9-4B9F-B405-24EE42D290F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33435" yWindow="2205" windowWidth="26535" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1635" windowWidth="26535" windowHeight="14565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartMachineConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -41,25 +41,21 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>0.0.0.0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>192.168.3.29</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>内网测试专用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>10.0.8.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>127.0.0.1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>外网服务器专用</t>
+    <t>0.0.0.0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -443,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F7"/>
+  <dimension ref="C3:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -490,18 +486,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
@@ -509,13 +505,21 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>11</v>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
